--- a/WebApplication1/Uploads/practical.xlsx
+++ b/WebApplication1/Uploads/practical.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SpeedRacer\Desktop\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\SOOAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -35,27 +35,122 @@
     <t>Year</t>
   </si>
   <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Applied Mathematics III</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming Methodolgy</t>
+  </si>
+  <si>
+    <t>Data Structures</t>
+  </si>
+  <si>
+    <t>Digital Logic Design and Analysis</t>
+  </si>
+  <si>
+    <t>Discrete Structures</t>
+  </si>
+  <si>
+    <t>Electronic Circuits and Communication Fundamentals</t>
+  </si>
+  <si>
+    <t>Applied Mathematics IV</t>
+  </si>
+  <si>
+    <t>Analysis of Algorithms</t>
+  </si>
+  <si>
+    <t>Computer Organization and Architecture</t>
+  </si>
+  <si>
+    <t>Data Base Management systems</t>
+  </si>
+  <si>
+    <t>Theoretical Computer Science</t>
+  </si>
+  <si>
+    <t>Computer Graphics</t>
+  </si>
+  <si>
+    <t>Microprocessor </t>
+  </si>
+  <si>
+    <t>Operating Systems </t>
+  </si>
+  <si>
+    <t>Structured and Object Oriented  Analysis and Design</t>
+  </si>
+  <si>
+    <t>Computer Networks</t>
+  </si>
+  <si>
+    <t>System Programming and Compiler Construction</t>
+  </si>
+  <si>
+    <t>Software Engineering</t>
+  </si>
+  <si>
+    <t>Distributed Databases</t>
+  </si>
+  <si>
+    <t>Mobile Communication and Computing</t>
+  </si>
+  <si>
+    <t>Elective­I</t>
+  </si>
+  <si>
+    <t>Network Programming Laboratory</t>
+  </si>
+  <si>
+    <t>Digital Signal Processing</t>
+  </si>
+  <si>
+    <t>Cryptography and System Security</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Elective­II</t>
+  </si>
+  <si>
+    <t>Project I</t>
+  </si>
+  <si>
+    <t>Data Warehouse and Mining</t>
+  </si>
+  <si>
+    <t>Human Machine Interaction</t>
+  </si>
+  <si>
+    <t>Parallel and distributed Systems</t>
+  </si>
+  <si>
+    <t>Elective­III</t>
+  </si>
+  <si>
+    <t>Teacherid</t>
+  </si>
+  <si>
+    <t>Teachername</t>
+  </si>
+  <si>
     <t>Batch</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>TE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,9 +179,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,46 +494,2517 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="102" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="102" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103">
+        <v>4</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <v>4</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>22</v>
+      </c>
+      <c r="B111">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112">
+        <v>6</v>
+      </c>
+      <c r="C112" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>24</v>
+      </c>
+      <c r="B113">
+        <v>6</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113">
+        <v>4</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114">
+        <v>6</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>26</v>
+      </c>
+      <c r="B115">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>27</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>28</v>
+      </c>
+      <c r="B117">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>30</v>
+      </c>
+      <c r="B119">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>31</v>
+      </c>
+      <c r="B120">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>32</v>
+      </c>
+      <c r="B121">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>4</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>33</v>
+      </c>
+      <c r="B122">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>4</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>35</v>
+      </c>
+      <c r="B124">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>36</v>
+      </c>
+      <c r="B125">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
